--- a/template_excel/就业统计报表.xlsx
+++ b/template_excel/就业统计报表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GSH\Tz_Create\template_excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B072C6-A485-4E27-8786-A061FBBD3E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="252" windowWidth="23256" windowHeight="12816" tabRatio="940" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12765" tabRatio="940" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LQOPAIZLSYYVNT" sheetId="156" state="hidden" r:id="rId1"/>
@@ -21,25 +15,14 @@
     <sheet name="行业划分" sheetId="166" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Database" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Database" hidden="1">#REF!</definedName>
+    <definedName name="Database" localSheetId="1" hidden="1">#REF!</definedName>
+    <definedName name="Database" hidden="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Database" localSheetId="1">#REF!</definedName>
     <definedName name="Excel_BuiltIn_Database">#REF!</definedName>
     <definedName name="工资福利司反馈" localSheetId="1">#REF!</definedName>
     <definedName name="工资福利司反馈">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -56,7 +39,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">      2023</t>
     </r>
@@ -64,7 +47,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -73,7 +55,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">    12   </t>
     </r>
@@ -81,7 +63,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -95,7 +76,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -103,7 +84,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>计量</t>
@@ -112,7 +92,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -120,7 +100,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>单位：人</t>
@@ -158,7 +137,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -166,7 +145,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -177,7 +155,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -185,7 +163,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -196,7 +173,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -204,7 +181,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -215,7 +191,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -223,7 +199,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -234,7 +209,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -242,7 +217,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -253,7 +227,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>6</t>
     </r>
@@ -261,7 +235,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -272,7 +245,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>7</t>
     </r>
@@ -280,7 +253,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -291,7 +263,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>8</t>
     </r>
@@ -299,7 +271,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -310,7 +281,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>9</t>
     </r>
@@ -318,7 +289,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -329,7 +299,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -337,7 +307,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>0月</t>
@@ -348,7 +317,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -356,7 +325,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>1月</t>
@@ -367,7 +335,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -375,7 +343,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>2月</t>
@@ -392,7 +359,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>填表人签章</t>
     </r>
@@ -400,20 +367,25 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>:</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>报出日期：</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">      </t>
     </r>
@@ -421,7 +393,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -430,7 +401,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">    </t>
     </r>
@@ -438,7 +409,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -447,7 +417,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -455,7 +425,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -469,7 +438,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>行关系：（</t>
     </r>
@@ -477,7 +446,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -485,7 +454,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）＝（</t>
@@ -494,7 +462,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -502,7 +470,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -511,7 +478,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -519,7 +486,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -528,7 +494,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -536,7 +502,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）。</t>
@@ -553,7 +518,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>EP1</t>
     </r>
@@ -561,7 +526,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号表与</t>
@@ -570,7 +534,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>EP7</t>
     </r>
@@ -578,7 +542,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号表</t>
@@ -589,7 +552,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>EP1</t>
     </r>
@@ -597,7 +560,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号表中第</t>
@@ -606,7 +568,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>5</t>
     </r>
@@ -614,7 +576,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>项（</t>
@@ -623,7 +584,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -631,7 +592,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>季度数、</t>
@@ -640,7 +600,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2—4</t>
     </r>
@@ -648,7 +608,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>季度当季发生数）应等于</t>
@@ -657,7 +616,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>EP7</t>
     </r>
@@ -665,7 +624,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>号表中第</t>
@@ -674,7 +632,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>9</t>
     </r>
@@ -682,7 +640,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>项；</t>
@@ -694,7 +651,6 @@
         <b/>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新就业人员分类情况表（</t>
@@ -704,7 +660,7 @@
         <b/>
         <sz val="16"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>01</t>
     </r>
@@ -713,7 +669,6 @@
         <b/>
         <sz val="16"/>
         <rFont val="新宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表）</t>
@@ -787,7 +742,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>填报说明：</t>
@@ -796,7 +750,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1</t>
     </r>
@@ -804,7 +758,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、本表为月报，数字为年初到报告期末的累计数。根据《黑龙江省就业和失业实名制登记暂行办法》的要求，本表基础数据的采集由社区从实名制管理软件</t>
@@ -815,7 +768,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -823,7 +776,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中提取，层层上报汇总，社区要每月对本辖区内的就业和失业人员情况进行动态管理，上报的数据要与就业、失业实名制台帐相符。</t>
@@ -834,7 +786,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                    2</t>
     </r>
@@ -842,7 +794,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、本表每月</t>
@@ -851,7 +802,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>24</t>
     </r>
@@ -859,7 +810,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日前上报到省厅。电话（传真）：</t>
@@ -868,7 +818,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">0451- 87130330 </t>
     </r>
@@ -876,7 +826,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -886,7 +835,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -895,7 +844,6 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>邮箱：</t>
@@ -905,7 +853,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">hljsjycyc@163.com </t>
     </r>
@@ -914,7 +862,6 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -925,7 +872,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                    3</t>
     </r>
@@ -933,7 +880,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、就业困难人员：①大龄，②身有残疾，③享受最低生活保障，④连续失业一年以上，⑤因失去土地等原因难以实现就业的人员，⑥县以上劳模，⑦军人配</t>
@@ -944,7 +890,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                        </t>
     </r>
@@ -952,7 +898,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 偶，⑧烈属，⑨独自抚养未成年人的离异或丧偶人员，⑩零就业家庭。</t>
@@ -961,7 +906,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -969,7 +914,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>⑪刑满释放</t>
@@ -978,7 +922,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“</t>
     </r>
@@ -986,7 +930,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>三无人员</t>
@@ -995,7 +938,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>”</t>
     </r>
@@ -1003,7 +946,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -1014,7 +956,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>栏次关系：</t>
@@ -1023,7 +964,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">    1  =6+7+8            1</t>
     </r>
@@ -1031,7 +972,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>≥</t>
@@ -1040,7 +980,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2      1</t>
     </r>
@@ -1048,7 +988,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>≥3</t>
@@ -1057,7 +996,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">       1</t>
     </r>
@@ -1065,7 +1004,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>≥</t>
@@ -1074,7 +1012,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>4      1</t>
     </r>
@@ -1082,7 +1020,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>≥5</t>
@@ -1091,7 +1028,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                  1 = 9+10+11+12+13+14+15            1=16+17+18</t>
     </r>
@@ -1101,7 +1038,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>单位负责人签章：</t>
@@ -1110,7 +1046,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                                                   </t>
     </r>
@@ -1118,7 +1054,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>处（科）负责人签章：</t>
@@ -1127,7 +1062,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                                            </t>
     </r>
@@ -1135,7 +1070,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>制表人签章：</t>
@@ -1144,7 +1078,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                                           </t>
     </r>
@@ -1152,7 +1086,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>报出日期：</t>
@@ -1161,7 +1094,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   2023  </t>
     </r>
@@ -1169,7 +1102,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年</t>
@@ -1178,7 +1110,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">    11 </t>
     </r>
@@ -1186,7 +1118,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月</t>
@@ -1195,7 +1126,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   13 </t>
     </r>
@@ -1203,7 +1134,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日</t>
@@ -1215,7 +1145,6 @@
         <b/>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>城镇登记失业人员期末实有情况表（</t>
@@ -1225,7 +1154,7 @@
         <b/>
         <sz val="16"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>02</t>
     </r>
@@ -1234,7 +1163,6 @@
         <b/>
         <sz val="16"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>表）</t>
@@ -1242,6 +1170,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>本年登记失业人员情况</t>
     </r>
     <r>
@@ -1249,7 +1182,6 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>（同EP2的15栏数据）</t>
@@ -1289,28 +1221,10 @@
     <t>年满16周岁各类学校毕业或肄业</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>女性</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>就业困难人员</t>
-    </r>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>就业困难人员</t>
   </si>
   <si>
     <t>填报说明：1、本表为月报，数字为年初到报告期末的时点数。</t>
@@ -1320,7 +1234,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1328,7 +1242,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、本表请于季末</t>
@@ -1337,7 +1250,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>24</t>
     </r>
@@ -1345,7 +1258,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>日前上报到省厅。电话（传真）：</t>
@@ -1354,7 +1266,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0451-87130330</t>
     </r>
@@ -1362,7 +1274,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1372,7 +1283,6 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>邮箱：</t>
@@ -1382,7 +1292,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">hljsjycyc@163.com </t>
     </r>
@@ -1391,7 +1301,6 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -1402,7 +1311,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1410,7 +1319,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、登记失业人员是指在劳动年龄</t>
@@ -1419,7 +1327,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>(16周岁至退休年龄)内有劳动能力、有就业要求，处于无业状态并在公共就业服务机构进行失业登记的城镇常住人员。</t>
     </r>
@@ -1432,7 +1340,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>4</t>
     </r>
@@ -1440,7 +1348,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>、就业困难人员：①大龄，②身有残疾，③享受最低生活保障，④连续失业一年以上，⑤因失去土地等原因难以实现就业的人员，⑥县以上劳模，</t>
@@ -1451,7 +1358,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1459,7 +1366,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>⑦军人配偶，</t>
@@ -1468,7 +1374,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1476,7 +1382,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>⑧烈属，⑨独自抚养未成年人的离异或丧偶人员，⑩零就业家庭。</t>
@@ -1485,7 +1390,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1493,7 +1398,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>⑪刑满释放</t>
@@ -1502,7 +1406,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>“</t>
     </r>
@@ -1510,7 +1414,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>三无人员</t>
@@ -1519,7 +1422,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>”</t>
     </r>
@@ -1527,7 +1430,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>。</t>
@@ -1538,7 +1440,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>栏次关系：</t>
@@ -1547,7 +1448,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">    1=2+3+4+5+6+7+8+9+10+11+12   </t>
     </r>
@@ -1623,7 +1524,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>甲</t>
     </r>
@@ -1631,7 +1532,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1641,7 +1542,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>填报说明：</t>
@@ -1651,7 +1551,6 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>本表为月报，数据为期末实点数，</t>
@@ -1660,7 +1559,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>即在本期末处于灵活就业和公益性岗位就业状态的人员总数。请于每月26日前报</t>
@@ -1670,7 +1568,6 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>省厅就业创业处</t>
@@ -1681,7 +1578,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                   </t>
     </r>
@@ -1689,7 +1586,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>电话（传真）：</t>
@@ -1698,7 +1594,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>0451-87130330</t>
     </r>
@@ -1706,7 +1602,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，</t>
@@ -1716,7 +1611,6 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>邮箱：</t>
@@ -1726,7 +1620,7 @@
         <sz val="10"/>
         <color indexed="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>hljsjycyc@163.com</t>
     </r>
@@ -1751,7 +1645,6 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>栏次关系：</t>
@@ -1760,7 +1653,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>1=2+3+4      1=5+6    6=7+8+9+10+11+12+13+14+15</t>
     </r>
@@ -1841,14 +1734,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="8">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\$#,##0_);[Red]&quot;($&quot;#,##0\)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="48">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1857,59 +1754,63 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
@@ -1918,36 +1819,29 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1956,36 +1850,184 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1993,14 +2035,12 @@
       <sz val="13"/>
       <color indexed="56"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2008,35 +2048,99 @@
       <sz val="10"/>
       <color indexed="10"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="新宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2046,12 +2150,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="45"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -2344,6 +2562,104 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2362,380 +2678,521 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2744,6 +3201,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2755,23 +3215,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="110" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="110" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2790,12 +3289,18 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2804,410 +3309,366 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="63" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="63" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="63" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="14" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="110" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="110" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="110" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="110" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="110" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="110" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="115" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="110" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="110" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="162" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="115" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="115" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="63" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="63" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="115" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="63" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="162" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="162" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="153">
-    <cellStyle name="ColLevel_0" xfId="20" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Comma [0]" xfId="22" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Comma [0] 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Comma [0] 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="Comma_Chart1" xfId="9" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Currency [0]" xfId="15" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Currency [0] 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Currency [0] 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Currency_Chart1" xfId="21" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="MS Sans Serif" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal_laroux" xfId="14" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="RowLevel_0" xfId="5" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="标题 1 1" xfId="19" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="标题 1 1 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="标题 1 1 3" xfId="27" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="标题 2 1" xfId="28" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="标题 2 1 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="标题 2 1 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="差_005-8月26日(佟亚丽+赵立卫)" xfId="31" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="差_005-8月26日(佟亚丽+赵立卫) 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="差_005-8月26日(佟亚丽+赵立卫) 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="差_04A-表式之一(第9-60页)" xfId="34" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="差_04A-表式之一(第9-60页) 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="差_04A-表式之一(第9-60页) 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="差_05表式10.5" xfId="37" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="差_05表式10.5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="差_05表式10.5 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="差_20101012(26-47)表" xfId="18" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="差_20101012(26-47)表 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="差_20101012(26-47)表 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="差_20101012(48-60)" xfId="42" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="差_20101012(48-60) 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="差_20101012(48-60) 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="差_20101012(9-25)" xfId="45" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="差_20101012(9-25) 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="差_20101012(9-25) 3" xfId="48" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="差_2010年社会保险统计报表表样" xfId="16" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="差_2010年社会保险统计报表表样 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="差_2010年社会保险统计报表表样 3" xfId="50" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="差_48-60" xfId="51" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="差_48-60 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="差_48-60 3" xfId="53" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="差_报表0831（改）" xfId="54" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="差_报表0831（改） 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="差_报表0831（改） 3" xfId="56" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="差_表式" xfId="57" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="差_表式 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="差_表式 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="差_黑龙江省农村劳动力转移就业情况调查表" xfId="60" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="差_黑龙江省农村劳动力转移就业情况调查表 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="差_黑龙江省农村劳动力转移就业情况调查表 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="差_医疗保险已改" xfId="64" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="差_医疗保险已改 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="差_医疗保险已改 3" xfId="11" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+  <cellStyles count="200">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 10" xfId="67" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="常规 11" xfId="68" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="常规 12" xfId="69" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="常规 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="常规 2 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="常规 2 2 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="常规 2 2 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="常规 2 2 2 3" xfId="74" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="常规 2 2 3" xfId="75" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="常规 2 2 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="常规 2 2_04A-表式之一(第9-60页)" xfId="77" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="常规 2 3" xfId="78" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="常规 2 3 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="常规 2 3 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="常规 2 3 2 2 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="常规 2 3 2 2 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="常规 2 3 2 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="常规 2 3 2 4" xfId="84" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="常规 2 3 2_04A-表式之一(第9-60页)" xfId="86" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="常规 2 3 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="常规 2 3 4" xfId="88" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="常规 2 3_04A-表式之一(第9-60页)" xfId="89" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="常规 2 4" xfId="90" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="常规 2 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="常规 2 4 2 2" xfId="92" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="常规 2 4 2 3" xfId="93" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="常规 2 4 3" xfId="94" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="常规 2 4 4" xfId="95" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="常规 2 4_04A-表式之一(第9-60页)" xfId="96" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="常规 2 5" xfId="97" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="常规 2 5 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="常规 2 5 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="常规 2 5 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="常规 2 5 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="常规 2 5 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="常规 2 6" xfId="102" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="常规 2 7" xfId="103" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="常规 2 8" xfId="104" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="常规 2_004-赵立卫（20090820）" xfId="105" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="常规 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="常规 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="常规 3 3" xfId="108" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="常规 3 4" xfId="109" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="常规 4" xfId="85" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="常规 4 2" xfId="110" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="常规 4 3" xfId="112" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="常规 5" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="常规 5 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="常规 5 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="常规 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="常规 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="常规 7" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="常规 7 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="常规 8" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="常规 9" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="常规_就业促进司报表式" xfId="63" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="好_005-8月26日(佟亚丽+赵立卫)" xfId="40" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="好_005-8月26日(佟亚丽+赵立卫) 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="好_005-8月26日(佟亚丽+赵立卫) 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="好_04A-表式之一(第9-60页)" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="好_04A-表式之一(第9-60页) 2" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="好_04A-表式之一(第9-60页) 3" xfId="121" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="好_05表式10.5" xfId="38" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="好_05表式10.5 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="好_05表式10.5 3" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="好_20101012(26-47)表" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="好_20101012(26-47)表 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="好_20101012(26-47)表 3" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="好_20101012(48-60)" xfId="111" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="好_20101012(48-60) 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="好_20101012(48-60) 3" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="好_20101012(9-25)" xfId="76" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="好_20101012(9-25) 2" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="好_20101012(9-25) 3" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="好_2010年社会保险统计报表表样" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="好_2010年社会保险统计报表表样 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="好_2010年社会保险统计报表表样 3" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
-    <cellStyle name="好_48-60" xfId="134" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
-    <cellStyle name="好_48-60 2" xfId="135" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="好_48-60 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="好_报表0831（改）" xfId="136" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="好_报表0831（改） 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="好_报表0831（改） 3" xfId="138" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="好_表式" xfId="139" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="好_表式 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="好_表式 3" xfId="141" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="好_黑龙江省农村劳动力转移就业情况调查表" xfId="142" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="好_黑龙江省农村劳动力转移就业情况调查表 2" xfId="143" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="好_黑龙江省农村劳动力转移就业情况调查表 3" xfId="144" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="好_医疗保险已改" xfId="145" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="好_医疗保险已改 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="好_医疗保险已改 3" xfId="147" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="普通_laroux" xfId="148" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="千分位[0]_laroux" xfId="149" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="千分位_laroux" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="千位[0]_laroux" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="千位_laroux" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="常规 2 2 4" xfId="4"/>
+    <cellStyle name="货币" xfId="5" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="MS Sans Serif" xfId="8"/>
+    <cellStyle name="差" xfId="9" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="10" builtinId="3"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="Comma [0] 3" xfId="12"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="13" builtinId="40"/>
+    <cellStyle name="百分比" xfId="14" builtinId="5"/>
+    <cellStyle name="RowLevel_0" xfId="15"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="18" builtinId="10"/>
+    <cellStyle name="Comma [0] 2" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="21" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="22" builtinId="11"/>
+    <cellStyle name="差_05表式10.5 2" xfId="23"/>
+    <cellStyle name="Comma_Chart1" xfId="24"/>
+    <cellStyle name="常规 5 2" xfId="25"/>
+    <cellStyle name="差_医疗保险已改 3" xfId="26"/>
+    <cellStyle name="标题" xfId="27" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="29" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="30" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="31" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="32" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44"/>
+    <cellStyle name="输出" xfId="34" builtinId="21"/>
+    <cellStyle name="计算" xfId="35" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="36" builtinId="23"/>
+    <cellStyle name="好_005-8月26日(佟亚丽+赵立卫) 3" xfId="37"/>
+    <cellStyle name="差_20101012(48-60) 3" xfId="38"/>
+    <cellStyle name="链接单元格" xfId="39" builtinId="24"/>
+    <cellStyle name="Normal_laroux" xfId="40"/>
+    <cellStyle name="强调文字颜色 2" xfId="41" builtinId="33"/>
+    <cellStyle name="Currency [0]" xfId="42"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="43" builtinId="50"/>
+    <cellStyle name="汇总" xfId="44" builtinId="25"/>
+    <cellStyle name="好" xfId="45" builtinId="26"/>
+    <cellStyle name="适中" xfId="46" builtinId="28"/>
+    <cellStyle name="差_2010年社会保险统计报表表样" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="48" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="49" builtinId="29"/>
+    <cellStyle name="Currency [0] 3" xfId="50"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="51" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="52" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="53" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="54" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="55" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="56" builtinId="41"/>
+    <cellStyle name="差_20101012(26-47)表" xfId="57"/>
+    <cellStyle name="标题 1 1" xfId="58"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="59" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="60" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="61" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="62" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="63" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="64" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="65" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="66" builtinId="52"/>
+    <cellStyle name="ColLevel_0" xfId="67"/>
+    <cellStyle name="Currency_Chart1" xfId="68"/>
+    <cellStyle name="Comma [0]" xfId="69"/>
+    <cellStyle name="Currency [0] 2" xfId="70"/>
+    <cellStyle name="差_20101012(26-47)表 2" xfId="71"/>
+    <cellStyle name="标题 1 1 2" xfId="72"/>
+    <cellStyle name="差_20101012(26-47)表 3" xfId="73"/>
+    <cellStyle name="标题 1 1 3" xfId="74"/>
+    <cellStyle name="标题 2 1" xfId="75"/>
+    <cellStyle name="标题 2 1 2" xfId="76"/>
+    <cellStyle name="标题 2 1 3" xfId="77"/>
+    <cellStyle name="差_005-8月26日(佟亚丽+赵立卫)" xfId="78"/>
+    <cellStyle name="差_005-8月26日(佟亚丽+赵立卫) 2" xfId="79"/>
+    <cellStyle name="差_005-8月26日(佟亚丽+赵立卫) 3" xfId="80"/>
+    <cellStyle name="差_04A-表式之一(第9-60页)" xfId="81"/>
+    <cellStyle name="差_04A-表式之一(第9-60页) 2" xfId="82"/>
+    <cellStyle name="差_04A-表式之一(第9-60页) 3" xfId="83"/>
+    <cellStyle name="差_05表式10.5" xfId="84"/>
+    <cellStyle name="好_05表式10.5" xfId="85"/>
+    <cellStyle name="差_05表式10.5 3" xfId="86"/>
+    <cellStyle name="好_005-8月26日(佟亚丽+赵立卫)" xfId="87"/>
+    <cellStyle name="常规 6 2" xfId="88"/>
+    <cellStyle name="差_20101012(48-60)" xfId="89"/>
+    <cellStyle name="好_005-8月26日(佟亚丽+赵立卫) 2" xfId="90"/>
+    <cellStyle name="差_20101012(48-60) 2" xfId="91"/>
+    <cellStyle name="差_20101012(9-25)" xfId="92"/>
+    <cellStyle name="常规 2 5 2 3" xfId="93"/>
+    <cellStyle name="差_20101012(9-25) 2" xfId="94"/>
+    <cellStyle name="差_20101012(9-25) 3" xfId="95"/>
+    <cellStyle name="差_2010年社会保险统计报表表样 2" xfId="96"/>
+    <cellStyle name="差_2010年社会保险统计报表表样 3" xfId="97"/>
+    <cellStyle name="差_48-60" xfId="98"/>
+    <cellStyle name="差_48-60 2" xfId="99"/>
+    <cellStyle name="差_48-60 3" xfId="100"/>
+    <cellStyle name="差_报表0831（改）" xfId="101"/>
+    <cellStyle name="差_报表0831（改） 2" xfId="102"/>
+    <cellStyle name="差_报表0831（改） 3" xfId="103"/>
+    <cellStyle name="差_表式" xfId="104"/>
+    <cellStyle name="差_表式 2" xfId="105"/>
+    <cellStyle name="差_表式 3" xfId="106"/>
+    <cellStyle name="差_黑龙江省农村劳动力转移就业情况调查表" xfId="107"/>
+    <cellStyle name="差_黑龙江省农村劳动力转移就业情况调查表 2" xfId="108"/>
+    <cellStyle name="差_黑龙江省农村劳动力转移就业情况调查表 3" xfId="109"/>
+    <cellStyle name="常规_就业促进司报表式" xfId="110"/>
+    <cellStyle name="差_医疗保险已改" xfId="111"/>
+    <cellStyle name="好_48-60 3" xfId="112"/>
+    <cellStyle name="差_医疗保险已改 2" xfId="113"/>
+    <cellStyle name="常规 10" xfId="114"/>
+    <cellStyle name="常规 11" xfId="115"/>
+    <cellStyle name="常规 12" xfId="116"/>
+    <cellStyle name="常规 2" xfId="117"/>
+    <cellStyle name="常规 2 2" xfId="118"/>
+    <cellStyle name="常规 2 2 2" xfId="119"/>
+    <cellStyle name="常规 2 2 2 2" xfId="120"/>
+    <cellStyle name="常规 2 2 2 3" xfId="121"/>
+    <cellStyle name="常规 2 2 3" xfId="122"/>
+    <cellStyle name="好_20101012(9-25)" xfId="123"/>
+    <cellStyle name="常规 2 2_04A-表式之一(第9-60页)" xfId="124"/>
+    <cellStyle name="常规 2 3" xfId="125"/>
+    <cellStyle name="常规 2 3 2" xfId="126"/>
+    <cellStyle name="常规 2 3 2 2" xfId="127"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="128"/>
+    <cellStyle name="常规 2 3 2 2 3" xfId="129"/>
+    <cellStyle name="常规 2 3 2 3" xfId="130"/>
+    <cellStyle name="常规 2 3 2 4" xfId="131"/>
+    <cellStyle name="常规 4" xfId="132"/>
+    <cellStyle name="常规 2 3 2_04A-表式之一(第9-60页)" xfId="133"/>
+    <cellStyle name="常规 2 3 3" xfId="134"/>
+    <cellStyle name="常规 2 3 4" xfId="135"/>
+    <cellStyle name="常规 2 3_04A-表式之一(第9-60页)" xfId="136"/>
+    <cellStyle name="常规 2 4" xfId="137"/>
+    <cellStyle name="常规 2 4 2" xfId="138"/>
+    <cellStyle name="常规 2 4 2 2" xfId="139"/>
+    <cellStyle name="常规 2 4 2 3" xfId="140"/>
+    <cellStyle name="常规 2 4 3" xfId="141"/>
+    <cellStyle name="常规 2 4 4" xfId="142"/>
+    <cellStyle name="常规 2 4_04A-表式之一(第9-60页)" xfId="143"/>
+    <cellStyle name="常规 2 5" xfId="144"/>
+    <cellStyle name="常规 2 5 2" xfId="145"/>
+    <cellStyle name="常规 2 5 2 2" xfId="146"/>
+    <cellStyle name="常规 2 5 3" xfId="147"/>
+    <cellStyle name="常规 2 5 4" xfId="148"/>
+    <cellStyle name="常规 2 6" xfId="149"/>
+    <cellStyle name="常规 2 7" xfId="150"/>
+    <cellStyle name="常规 2 8" xfId="151"/>
+    <cellStyle name="常规 2_004-赵立卫（20090820）" xfId="152"/>
+    <cellStyle name="常规 3" xfId="153"/>
+    <cellStyle name="常规 3 2" xfId="154"/>
+    <cellStyle name="常规 3 3" xfId="155"/>
+    <cellStyle name="常规 3 4" xfId="156"/>
+    <cellStyle name="常规 4 2" xfId="157"/>
+    <cellStyle name="好_20101012(48-60)" xfId="158"/>
+    <cellStyle name="常规 4 3" xfId="159"/>
+    <cellStyle name="常规 5" xfId="160"/>
+    <cellStyle name="常规 5 3" xfId="161"/>
+    <cellStyle name="常规 7" xfId="162"/>
+    <cellStyle name="常规 7 2" xfId="163"/>
+    <cellStyle name="常规 8" xfId="164"/>
+    <cellStyle name="常规 9" xfId="165"/>
+    <cellStyle name="好_04A-表式之一(第9-60页)" xfId="166"/>
+    <cellStyle name="好_04A-表式之一(第9-60页) 2" xfId="167"/>
+    <cellStyle name="好_04A-表式之一(第9-60页) 3" xfId="168"/>
+    <cellStyle name="好_05表式10.5 2" xfId="169"/>
+    <cellStyle name="好_05表式10.5 3" xfId="170"/>
+    <cellStyle name="好_20101012(26-47)表" xfId="171"/>
+    <cellStyle name="好_20101012(26-47)表 2" xfId="172"/>
+    <cellStyle name="好_20101012(9-25) 2" xfId="173"/>
+    <cellStyle name="好_20101012(26-47)表 3" xfId="174"/>
+    <cellStyle name="好_20101012(48-60) 2" xfId="175"/>
+    <cellStyle name="好_20101012(48-60) 3" xfId="176"/>
+    <cellStyle name="好_20101012(9-25) 3" xfId="177"/>
+    <cellStyle name="好_2010年社会保险统计报表表样" xfId="178"/>
+    <cellStyle name="好_2010年社会保险统计报表表样 2" xfId="179"/>
+    <cellStyle name="好_2010年社会保险统计报表表样 3" xfId="180"/>
+    <cellStyle name="好_48-60" xfId="181"/>
+    <cellStyle name="好_48-60 2" xfId="182"/>
+    <cellStyle name="好_报表0831（改）" xfId="183"/>
+    <cellStyle name="好_报表0831（改） 2" xfId="184"/>
+    <cellStyle name="好_报表0831（改） 3" xfId="185"/>
+    <cellStyle name="好_表式" xfId="186"/>
+    <cellStyle name="好_表式 2" xfId="187"/>
+    <cellStyle name="好_表式 3" xfId="188"/>
+    <cellStyle name="好_黑龙江省农村劳动力转移就业情况调查表" xfId="189"/>
+    <cellStyle name="好_黑龙江省农村劳动力转移就业情况调查表 2" xfId="190"/>
+    <cellStyle name="好_黑龙江省农村劳动力转移就业情况调查表 3" xfId="191"/>
+    <cellStyle name="好_医疗保险已改" xfId="192"/>
+    <cellStyle name="好_医疗保险已改 2" xfId="193"/>
+    <cellStyle name="好_医疗保险已改 3" xfId="194"/>
+    <cellStyle name="普通_laroux" xfId="195"/>
+    <cellStyle name="千分位[0]_laroux" xfId="196"/>
+    <cellStyle name="千分位_laroux" xfId="197"/>
+    <cellStyle name="千位[0]_laroux" xfId="198"/>
+    <cellStyle name="千位_laroux" xfId="199"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF0000"/>
-      <color rgb="FF000000"/>
+      <color rgb="00FF0000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3465,27 +3926,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" showZeros="0" showOutlineSymbols="0" defaultGridColor="0" colorId="0" zoomScaleSheetLayoutView="6" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" showZeros="0" showOutlineSymbols="0" zoomScaleSheetLayoutView="6" defaultGridColor="0" colorId="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3495,126 +3957,126 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" style="38" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="38" customWidth="1"/>
-    <col min="3" max="6" width="18.69921875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="19.09765625" style="38" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="38"/>
+    <col min="1" max="1" width="7.7" style="76" customWidth="1"/>
+    <col min="2" max="2" width="9.1" style="76" customWidth="1"/>
+    <col min="3" max="6" width="18.7" style="76" customWidth="1"/>
+    <col min="7" max="7" width="19.1" style="76" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="36" customFormat="1" ht="27" customHeight="1">
-      <c r="B1" s="62" t="s">
+    <row r="1" s="74" customFormat="1" ht="27" customHeight="1" spans="2:7">
+      <c r="B1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-    </row>
-    <row r="2" spans="1:7" s="37" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A2" s="37" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+    </row>
+    <row r="2" s="75" customFormat="1" ht="12.75" customHeight="1" spans="1:7">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="79" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="37" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="56" t="s">
+    <row r="3" s="75" customFormat="1" ht="21" customHeight="1" spans="1:7">
+      <c r="A3" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="37" customFormat="1" ht="78.900000000000006" customHeight="1">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
-    </row>
-    <row r="5" spans="1:7" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="40" t="s">
+    <row r="4" s="75" customFormat="1" ht="78.9" customHeight="1" spans="1:7">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" s="75" customFormat="1" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A5" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="87">
         <v>1</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="87">
         <v>2</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="87">
         <v>3</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="88">
         <v>4</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" s="75" customFormat="1" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="49"/>
     </row>
-    <row r="7" spans="1:7" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" s="75" customFormat="1" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="49"/>
     </row>
-    <row r="8" spans="1:7" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="75" customFormat="1" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="49"/>
@@ -3623,11 +4085,11 @@
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
     </row>
-    <row r="9" spans="1:7" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" s="75" customFormat="1" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>4</v>
       </c>
       <c r="C9" s="49"/>
@@ -3636,11 +4098,11 @@
       <c r="F9" s="49"/>
       <c r="G9" s="49"/>
     </row>
-    <row r="10" spans="1:7" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="75" customFormat="1" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>5</v>
       </c>
       <c r="C10" s="49"/>
@@ -3649,11 +4111,11 @@
       <c r="F10" s="49"/>
       <c r="G10" s="49"/>
     </row>
-    <row r="11" spans="1:7" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" s="75" customFormat="1" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>6</v>
       </c>
       <c r="C11" s="49"/>
@@ -3662,11 +4124,11 @@
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
     </row>
-    <row r="12" spans="1:7" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" s="75" customFormat="1" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>7</v>
       </c>
       <c r="C12" s="49"/>
@@ -3675,11 +4137,11 @@
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
     </row>
-    <row r="13" spans="1:7" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="7" t="s">
+    <row r="13" s="75" customFormat="1" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>8</v>
       </c>
       <c r="C13" s="49"/>
@@ -3688,11 +4150,11 @@
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
     </row>
-    <row r="14" spans="1:7" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" s="75" customFormat="1" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>9</v>
       </c>
       <c r="C14" s="49"/>
@@ -3701,11 +4163,11 @@
       <c r="F14" s="49"/>
       <c r="G14" s="49"/>
     </row>
-    <row r="15" spans="1:7" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="7" t="s">
+    <row r="15" s="75" customFormat="1" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>10</v>
       </c>
       <c r="C15" s="49"/>
@@ -3714,11 +4176,11 @@
       <c r="F15" s="49"/>
       <c r="G15" s="49"/>
     </row>
-    <row r="16" spans="1:7" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="7" t="s">
+    <row r="16" s="75" customFormat="1" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>11</v>
       </c>
       <c r="C16" s="49"/>
@@ -3727,11 +4189,11 @@
       <c r="F16" s="49"/>
       <c r="G16" s="49"/>
     </row>
-    <row r="17" spans="1:7" s="37" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="7" t="s">
+    <row r="17" s="75" customFormat="1" ht="20.1" customHeight="1" spans="1:7">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>12</v>
       </c>
       <c r="C17" s="49"/>
@@ -3741,78 +4203,78 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65" t="s">
+      <c r="B18" s="89"/>
+      <c r="C18" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="44" t="s">
+      <c r="D18" s="90"/>
+      <c r="E18" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="66" t="s">
+      <c r="F18" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="67"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1">
-      <c r="A20" s="55" t="s">
+      <c r="G18" s="79"/>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:7">
+      <c r="A20" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="55" t="s">
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:7">
+      <c r="A21" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1">
-      <c r="A22" s="55" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:7">
+      <c r="A22" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="55"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="45" t="s">
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:7">
+      <c r="A23" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="46" t="s">
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3833,735 +4295,735 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0.71" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" customWidth="1"/>
-    <col min="2" max="2" width="4.69921875" customWidth="1"/>
-    <col min="3" max="3" width="7.3984375" customWidth="1"/>
-    <col min="4" max="5" width="7.59765625" customWidth="1"/>
-    <col min="6" max="6" width="7.69921875" customWidth="1"/>
-    <col min="7" max="7" width="6.8984375" customWidth="1"/>
-    <col min="8" max="13" width="7.69921875" customWidth="1"/>
+    <col min="1" max="1" width="5.7" customWidth="1"/>
+    <col min="2" max="2" width="4.7" customWidth="1"/>
+    <col min="3" max="3" width="7.4" customWidth="1"/>
+    <col min="4" max="5" width="7.6" customWidth="1"/>
+    <col min="6" max="6" width="7.7" customWidth="1"/>
+    <col min="7" max="7" width="6.9" customWidth="1"/>
+    <col min="8" max="13" width="7.7" customWidth="1"/>
     <col min="14" max="14" width="6.5" customWidth="1"/>
-    <col min="15" max="16" width="7.69921875" customWidth="1"/>
-    <col min="17" max="17" width="6.8984375" customWidth="1"/>
-    <col min="18" max="20" width="7.69921875" customWidth="1"/>
+    <col min="15" max="16" width="7.7" customWidth="1"/>
+    <col min="17" max="17" width="6.9" customWidth="1"/>
+    <col min="18" max="20" width="7.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="33" customFormat="1" ht="36.9" customHeight="1">
-      <c r="A1" s="83" t="s">
+    <row r="1" s="56" customFormat="1" ht="36.9" customHeight="1" spans="1:20">
+      <c r="A1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-    </row>
-    <row r="2" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+    </row>
+    <row r="2" ht="19.5" customHeight="1" spans="1:20">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="82" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="72" t="s">
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="87" t="s">
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-    </row>
-    <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80" t="s">
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:20">
+      <c r="A3" s="41"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="81" t="s">
+      <c r="H3" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="J3" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="69" t="s">
+      <c r="K3" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="68" t="s">
+      <c r="L3" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="69" t="s">
+      <c r="N3" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="69" t="s">
+      <c r="O3" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="P3" s="69" t="s">
+      <c r="P3" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="Q3" s="71" t="s">
+      <c r="Q3" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="68" t="s">
+      <c r="R3" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="68" t="s">
+      <c r="S3" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="T3" s="68" t="s">
+      <c r="T3" s="64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="101.25" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-    </row>
-    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="25" t="s">
+    <row r="4" ht="101.25" customHeight="1" spans="1:20">
+      <c r="A4" s="45"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1" spans="1:20">
+      <c r="A5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="66">
         <v>1</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="66">
         <v>2</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="66">
         <v>3</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="66">
         <v>4</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="66">
         <v>5</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="66">
         <v>6</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="66">
         <v>7</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="66">
         <v>8</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="66">
         <v>9</v>
       </c>
-      <c r="L5" s="34">
+      <c r="L5" s="66">
         <v>10</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="66">
         <v>11</v>
       </c>
-      <c r="N5" s="34">
+      <c r="N5" s="66">
         <v>12</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="66">
         <v>13</v>
       </c>
-      <c r="P5" s="34">
+      <c r="P5" s="66">
         <v>14</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="66">
         <v>15</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="48">
         <v>16</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="48">
         <v>17</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="48">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" ht="20.1" customHeight="1" spans="1:20">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
       <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="49"/>
-      <c r="F6" s="48"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="49"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="49"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="49"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-    </row>
-    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:20">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
+      <c r="D7" s="67"/>
       <c r="E7" s="49"/>
-      <c r="F7" s="48"/>
+      <c r="F7" s="3"/>
       <c r="G7" s="49"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="49"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="49"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-    </row>
-    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:20">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
-      <c r="F8" s="48"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="49"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="49"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="49"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-    </row>
-    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:20">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>4</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
-      <c r="F9" s="48"/>
+      <c r="F9" s="3"/>
       <c r="G9" s="49"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="49"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
       <c r="P9" s="49"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-    </row>
-    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:20">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>5</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
-      <c r="F10" s="48"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="49"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="49"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="49"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-    </row>
-    <row r="11" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="1:20">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>6</v>
       </c>
       <c r="C11" s="49"/>
       <c r="D11" s="49"/>
       <c r="E11" s="49"/>
-      <c r="F11" s="48"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="49"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="49"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="49"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-    </row>
-    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:20">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>7</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
-      <c r="F12" s="48"/>
+      <c r="F12" s="3"/>
       <c r="G12" s="49"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="49"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="49"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-    </row>
-    <row r="13" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:20">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>8</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
-      <c r="F13" s="48"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="49"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="49"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="49"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-    </row>
-    <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:20">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>9</v>
       </c>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
-      <c r="F14" s="48"/>
+      <c r="F14" s="3"/>
       <c r="G14" s="49"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="49"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="49"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-    </row>
-    <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:20">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>10</v>
       </c>
       <c r="C15" s="49"/>
       <c r="D15" s="49"/>
       <c r="E15" s="49"/>
-      <c r="F15" s="48"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="49"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="49"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="49"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-    </row>
-    <row r="16" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="7" t="s">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" ht="20.1" customHeight="1" spans="1:20">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>11</v>
       </c>
       <c r="C16" s="49"/>
       <c r="D16" s="49"/>
       <c r="E16" s="49"/>
-      <c r="F16" s="48"/>
+      <c r="F16" s="3"/>
       <c r="G16" s="49"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="49"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="49"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-    </row>
-    <row r="17" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="1:20">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="12" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="27" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="27" t="s">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="27" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="27" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-    </row>
-    <row r="25" spans="1:20" ht="30.9" customHeight="1">
-      <c r="A25" s="73" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+    </row>
+    <row r="25" ht="30.9" customHeight="1" spans="1:20">
+      <c r="A25" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -4586,595 +5048,599 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="T3:T4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.16" right="0.16" top="0.79" bottom="0.79" header="0.31" footer="0.31"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="5.69921875" customWidth="1"/>
-    <col min="3" max="14" width="9.59765625" customWidth="1"/>
+    <col min="2" max="2" width="5.7" customWidth="1"/>
+    <col min="3" max="14" width="9.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="33.9" customHeight="1">
-      <c r="A1" s="89" t="s">
+    <row r="1" ht="33.9" customHeight="1" spans="1:14">
+      <c r="A1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-    </row>
-    <row r="2" spans="1:16" ht="21.75" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+    </row>
+    <row r="2" ht="21.75" customHeight="1" spans="1:14">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="29"/>
-    </row>
-    <row r="3" spans="1:16" ht="21" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="94" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="52"/>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:14">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="94" t="s">
+      <c r="H3" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="88" t="s">
+      <c r="K3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L3" s="94" t="s">
+      <c r="L3" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="88" t="s">
+      <c r="M3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="88" t="s">
+      <c r="N3" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="84.75" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="30" t="s">
+    <row r="4" ht="84.75" customHeight="1" spans="1:16">
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="54" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="48">
         <v>1</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="48">
         <v>2</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="48">
         <v>3</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="48">
         <v>4</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="48">
         <v>5</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="48">
         <v>6</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="48">
         <v>7</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="48">
         <v>8</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="48">
         <v>9</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="48">
         <v>10</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="48">
         <v>11</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="48">
         <v>12</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="55">
         <v>13</v>
       </c>
-      <c r="P5" s="32">
+      <c r="P5" s="55">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" ht="20.1" customHeight="1" spans="1:16">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
       <c r="C6" s="49"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
       <c r="I6" s="49"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-    </row>
-    <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:16">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
       <c r="I7" s="49"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-    </row>
-    <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:16">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>3</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="49"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-    </row>
-    <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:16">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>4</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="49"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-    </row>
-    <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:16">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>5</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
       <c r="I10" s="49"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-    </row>
-    <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="1:16">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>6</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="49"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-    </row>
-    <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:16">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>7</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="49"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="107"/>
-    </row>
-    <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:16">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>8</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
       <c r="I13" s="49"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="107"/>
-      <c r="P13" s="107"/>
-    </row>
-    <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:16">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>9</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="49"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-    </row>
-    <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:16">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>10</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="49"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-    </row>
-    <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="7" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" ht="20.1" customHeight="1" spans="1:16">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>11</v>
       </c>
       <c r="C16" s="49"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="49"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-    </row>
-    <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="1:16">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="12" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="91" t="s">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="27" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="12" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="27" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="91" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="73" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-    </row>
-    <row r="25" spans="1:16" ht="33" customHeight="1">
-      <c r="A25" s="73" t="s">
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+    </row>
+    <row r="25" ht="33" customHeight="1" spans="1:14">
+      <c r="A25" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A24:N24"/>
     <mergeCell ref="A25:N25"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
@@ -5190,842 +5656,838 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A19:N19"/>
-    <mergeCell ref="A23:N23"/>
-    <mergeCell ref="A24:N24"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.55000000000000004" right="0.16" top="0.79" bottom="0.79" header="0.31" footer="0.31"/>
+  <pageMargins left="0.55" right="0.16" top="0.79" bottom="0.79" header="0.31" footer="0.31"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="5.19921875" customWidth="1"/>
-    <col min="4" max="4" width="4.3984375" customWidth="1"/>
-    <col min="5" max="5" width="4.09765625" customWidth="1"/>
+    <col min="3" max="3" width="5.2" customWidth="1"/>
+    <col min="4" max="4" width="4.4" customWidth="1"/>
+    <col min="5" max="5" width="4.1" customWidth="1"/>
     <col min="6" max="6" width="4" customWidth="1"/>
-    <col min="7" max="7" width="5.3984375" customWidth="1"/>
-    <col min="8" max="8" width="6.8984375" customWidth="1"/>
-    <col min="9" max="9" width="6.09765625" customWidth="1"/>
-    <col min="10" max="15" width="6.69921875" customWidth="1"/>
+    <col min="7" max="7" width="5.4" customWidth="1"/>
+    <col min="8" max="8" width="6.9" customWidth="1"/>
+    <col min="9" max="9" width="6.1" customWidth="1"/>
+    <col min="10" max="15" width="6.7" customWidth="1"/>
     <col min="16" max="16" width="6.5" customWidth="1"/>
-    <col min="17" max="17" width="6.69921875" customWidth="1"/>
-    <col min="18" max="18" width="5.69921875" customWidth="1"/>
+    <col min="17" max="17" width="6.7" customWidth="1"/>
+    <col min="18" max="18" width="5.7" customWidth="1"/>
     <col min="19" max="19" width="6.5" customWidth="1"/>
-    <col min="20" max="20" width="6.69921875" customWidth="1"/>
-    <col min="21" max="21" width="6.09765625" customWidth="1"/>
-    <col min="22" max="22" width="6.8984375" customWidth="1"/>
-    <col min="23" max="23" width="6.69921875" customWidth="1"/>
+    <col min="20" max="20" width="6.7" customWidth="1"/>
+    <col min="21" max="21" width="6.1" customWidth="1"/>
+    <col min="22" max="22" width="6.9" customWidth="1"/>
+    <col min="23" max="23" width="6.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1">
-      <c r="A1" s="89" t="s">
+    <row r="1" ht="30" customHeight="1" spans="1:22">
+      <c r="A1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-    </row>
-    <row r="2" spans="1:22" s="12" customFormat="1" ht="33.9" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+    </row>
+    <row r="2" s="18" customFormat="1" ht="33.9" customHeight="1" spans="1:22">
+      <c r="A2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37">
         <v>2023</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="37">
         <v>11</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="103" t="s">
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="103"/>
-      <c r="V2" s="21"/>
-    </row>
-    <row r="3" spans="1:22" ht="25.5" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+    </row>
+    <row r="3" ht="25.5" customHeight="1" spans="1:22">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="76" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-    </row>
-    <row r="4" spans="1:22" ht="87" customHeight="1">
-      <c r="A4" s="97"/>
-      <c r="B4" s="99"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="3" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+    </row>
+    <row r="4" ht="87" customHeight="1" spans="1:22">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="28"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="V4" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="21" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="21" customHeight="1" spans="1:22">
+      <c r="A5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="30">
         <v>1</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="30">
         <v>2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>3</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>4</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="31">
         <v>5</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>6</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="38">
         <v>7</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <v>8</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>9</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <v>10</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="6">
         <v>11</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="6">
         <v>12</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="6">
         <v>13</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="6">
         <v>14</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="6">
         <v>15</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="6">
         <v>16</v>
       </c>
-      <c r="S5" s="5">
+      <c r="S5" s="6">
         <v>17</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="6">
         <v>18</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="6">
         <v>19</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" ht="20.1" customHeight="1" spans="1:22">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-    </row>
-    <row r="7" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1" spans="1:22">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-    </row>
-    <row r="8" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" ht="20.1" customHeight="1" spans="1:22">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-    </row>
-    <row r="9" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="1:22">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-    </row>
-    <row r="10" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+    </row>
+    <row r="10" ht="20.1" customHeight="1" spans="1:22">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-    </row>
-    <row r="11" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="1:22">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-    </row>
-    <row r="12" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" ht="20.1" customHeight="1" spans="1:22">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-    </row>
-    <row r="13" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="1:22">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-    </row>
-    <row r="14" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" ht="20.1" customHeight="1" spans="1:22">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-    </row>
-    <row r="15" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1" spans="1:22">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-    </row>
-    <row r="16" spans="1:22" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="7" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+    </row>
+    <row r="16" ht="20.1" customHeight="1" spans="1:22">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-    </row>
-    <row r="17" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" ht="20.1" customHeight="1" spans="1:22">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-    </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:22">
+      <c r="A18" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-    </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1">
-      <c r="A19" s="100" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:22">
+      <c r="A19" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="100"/>
-      <c r="R19" s="100"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-    </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1">
-      <c r="A20" s="73" t="s">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:22">
+      <c r="A20" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-    </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1">
-      <c r="A21" s="95" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:22">
+      <c r="A21" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="95"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-    </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1">
-      <c r="A22" s="95" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+    </row>
+    <row r="22" ht="15" customHeight="1" spans="1:23">
+      <c r="A22" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="95"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="23"/>
-    </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1">
-      <c r="A23" s="101" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="39"/>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:22">
+      <c r="A23" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="101"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="101"/>
-    </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1">
-      <c r="A24" s="95" t="s">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+    </row>
+    <row r="24" ht="15" customHeight="1" spans="1:22">
+      <c r="A24" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="95"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="19"/>
-      <c r="T24" s="19"/>
-      <c r="U24" s="19"/>
-      <c r="V24" s="19"/>
-    </row>
-    <row r="25" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="73" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+    </row>
+    <row r="25" ht="20.1" customHeight="1" spans="1:22">
+      <c r="A25" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-    </row>
-    <row r="26" spans="1:23" ht="30" customHeight="1">
-      <c r="A26" s="73" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:22">
+      <c r="A26" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="73"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-    </row>
-    <row r="31" spans="1:23" ht="24" customHeight="1"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+    </row>
+    <row r="31" ht="24" customHeight="1"/>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="A1:V1"/>
@@ -6033,6 +6495,11 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="I3:V3"/>
+    <mergeCell ref="A19:R19"/>
+    <mergeCell ref="A20:V20"/>
+    <mergeCell ref="A21:V21"/>
+    <mergeCell ref="A22:V22"/>
+    <mergeCell ref="A23:V23"/>
     <mergeCell ref="A24:R24"/>
     <mergeCell ref="A25:R25"/>
     <mergeCell ref="A26:V26"/>
@@ -6041,34 +6508,29 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A19:R19"/>
-    <mergeCell ref="A20:V20"/>
-    <mergeCell ref="A21:V21"/>
-    <mergeCell ref="A22:V22"/>
-    <mergeCell ref="A23:V23"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.39" bottom="0.39" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" customHeight="1">
+    <row r="1" ht="30" customHeight="1" spans="2:23">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -6077,13 +6539,13 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -6094,7 +6556,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="2:23">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -6125,522 +6587,522 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="88" t="s">
+      <c r="D3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H3" s="88" t="s">
+      <c r="H3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="88" t="s">
+      <c r="I3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="88" t="s">
+      <c r="J3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="88" t="s">
+      <c r="K3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="88" t="s">
+      <c r="L3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="88" t="s">
+      <c r="M3" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N3" s="88" t="s">
+      <c r="N3" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="O3" s="88" t="s">
+      <c r="O3" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="P3" s="88" t="s">
+      <c r="P3" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="Q3" s="88" t="s">
+      <c r="Q3" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="R3" s="88" t="s">
+      <c r="R3" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="T3" s="88" t="s">
+      <c r="T3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="U3" s="88" t="s">
+      <c r="U3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="V3" s="11"/>
-      <c r="W3" s="88" t="s">
+      <c r="V3" s="17"/>
+      <c r="W3" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="24">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="88"/>
-      <c r="Q4" s="88"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="88"/>
-      <c r="U4" s="88"/>
-      <c r="V4" s="3" t="s">
+    <row r="4" ht="24" spans="1:23">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="W4" s="88"/>
-    </row>
-    <row r="5" spans="1:23" ht="22.05" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" ht="22.05" customHeight="1" spans="1:23">
+      <c r="A5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>4</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>5</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>6</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>7</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>8</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="7">
         <v>9</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="7">
         <v>10</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <v>11</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="7">
         <v>12</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5" s="7">
         <v>13</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="7">
         <v>14</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="7">
         <v>15</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5" s="7">
         <v>16</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="7">
         <v>17</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="7">
         <v>18</v>
       </c>
-      <c r="U5" s="6">
+      <c r="U5" s="7">
         <v>19</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="27" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" ht="27" customHeight="1" spans="1:23">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-    </row>
-    <row r="7" spans="1:23" ht="27" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="1:23">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-    </row>
-    <row r="8" spans="1:23" ht="27" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:23">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>3</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-    </row>
-    <row r="9" spans="1:23" ht="27" customHeight="1">
-      <c r="A9" s="7" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:23">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-    </row>
-    <row r="10" spans="1:23" ht="27" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+    </row>
+    <row r="10" ht="27" customHeight="1" spans="1:23">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-    </row>
-    <row r="11" spans="1:23" ht="27" customHeight="1">
-      <c r="A11" s="7" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:23">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="9">
         <v>6</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="51"/>
-    </row>
-    <row r="12" spans="1:23" ht="27" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" ht="27" customHeight="1" spans="1:23">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="9">
         <v>7</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="51"/>
-    </row>
-    <row r="13" spans="1:23" ht="27" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="1:23">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="9">
         <v>8</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-    </row>
-    <row r="14" spans="1:23" ht="27" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" ht="27" customHeight="1" spans="1:23">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="9">
         <v>9</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-    </row>
-    <row r="15" spans="1:23" ht="27" customHeight="1">
-      <c r="A15" s="7" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" ht="27" customHeight="1" spans="1:23">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-    </row>
-    <row r="16" spans="1:23" ht="27" customHeight="1">
-      <c r="A16" s="7" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" ht="27" customHeight="1" spans="1:23">
+      <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="9">
         <v>11</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="51"/>
-    </row>
-    <row r="17" spans="1:23" ht="27" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+    </row>
+    <row r="17" ht="27" customHeight="1" spans="1:23">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="F22" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -6659,16 +7121,16 @@
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="W3:W4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="W3:W4"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/template_excel/就业统计报表.xlsx
+++ b/template_excel/就业统计报表.xlsx
@@ -36,12 +36,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">      2023</t>
+      <t xml:space="preserve">      2024</t>
     </r>
     <r>
       <rPr>
@@ -1035,11 +1030,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>单位负责人签章：</t>
     </r>
     <r>
@@ -1096,7 +1086,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">   2023  </t>
+      <t xml:space="preserve">   2024  </t>
     </r>
     <r>
       <rPr>
@@ -1454,7 +1444,7 @@
     </r>
   </si>
   <si>
-    <t>单位负责人签章：                处（科）负责人签章：                  制表人签章：                          报出日期： 2023  年  11月  13 日</t>
+    <t>单位负责人签章：                处（科）负责人签章：                  制表人签章：                          报出日期： 2024  年  11月  13 日</t>
   </si>
   <si>
     <t>灵活方式及公益性岗位就业人员情况统计表（03表）</t>
@@ -1659,7 +1649,7 @@
     </r>
   </si>
   <si>
-    <t>单位负责人签章：                处(科)室负责人签章：                      填表人签章：                          报出日期： 2023  年  11  月  13  日</t>
+    <t>单位负责人签章：                处(科)室负责人签章：                      填表人签章：                          报出日期： 2024  年  11  月  13  日</t>
   </si>
   <si>
     <t>行业划分</t>
@@ -1740,12 +1730,12 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="\$#,##0_);[Red]&quot;($&quot;#,##0\)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * \-??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="\$#,##0_);[Red]&quot;($&quot;#,##0\)"/>
     <numFmt numFmtId="178" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * \-_ ;_ @_ "/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="46">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1764,11 +1754,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1857,6 +1842,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1868,12 +1859,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1927,18 +1912,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -1990,16 +1975,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2036,13 +2021,6 @@
       <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2144,13 +2122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2680,7 +2658,13 @@
   </borders>
   <cellStyleXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2689,125 +2673,118 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2820,55 +2797,56 @@
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2890,32 +2868,32 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2957,240 +2935,240 @@
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3215,10 +3193,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="111" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="111" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3227,19 +3205,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="110" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="111" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="110" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="111" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3249,7 +3227,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3300,18 +3278,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3336,117 +3314,117 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="111" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="111" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="14" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="111" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="111" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="111" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="111" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="111" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="111" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="111" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="111" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="111" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="111" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="111" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="111" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="111" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="111" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="14" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="111" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="110" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="110" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="110" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="110" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="111" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="111" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="110" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="110" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="110" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="110" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="110" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="111" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="162" applyFont="1" applyAlignment="1">
@@ -3460,10 +3438,10 @@
   <cellStyles count="200">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="常规 2 2 4" xfId="4"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="常规 2 2 4" xfId="3"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" builtinId="38"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
     <cellStyle name="MS Sans Serif" xfId="8"/>
@@ -3475,17 +3453,17 @@
     <cellStyle name="百分比" xfId="14" builtinId="5"/>
     <cellStyle name="RowLevel_0" xfId="15"/>
     <cellStyle name="已访问的超链接" xfId="16" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="17"/>
-    <cellStyle name="注释" xfId="18" builtinId="10"/>
+    <cellStyle name="注释" xfId="17" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="18"/>
     <cellStyle name="Comma [0] 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
     <cellStyle name="标题 4" xfId="21" builtinId="19"/>
     <cellStyle name="警告文本" xfId="22" builtinId="11"/>
-    <cellStyle name="差_05表式10.5 2" xfId="23"/>
-    <cellStyle name="Comma_Chart1" xfId="24"/>
-    <cellStyle name="常规 5 2" xfId="25"/>
-    <cellStyle name="差_医疗保险已改 3" xfId="26"/>
-    <cellStyle name="标题" xfId="27" builtinId="15"/>
+    <cellStyle name="标题" xfId="23" builtinId="15"/>
+    <cellStyle name="常规 5 2" xfId="24"/>
+    <cellStyle name="差_医疗保险已改 3" xfId="25"/>
+    <cellStyle name="差_05表式10.5 2" xfId="26"/>
+    <cellStyle name="Comma_Chart1" xfId="27"/>
     <cellStyle name="解释性文本" xfId="28" builtinId="53"/>
     <cellStyle name="标题 1" xfId="29" builtinId="16"/>
     <cellStyle name="标题 2" xfId="30" builtinId="17"/>
@@ -3495,44 +3473,44 @@
     <cellStyle name="输出" xfId="34" builtinId="21"/>
     <cellStyle name="计算" xfId="35" builtinId="22"/>
     <cellStyle name="检查单元格" xfId="36" builtinId="23"/>
-    <cellStyle name="好_005-8月26日(佟亚丽+赵立卫) 3" xfId="37"/>
-    <cellStyle name="差_20101012(48-60) 3" xfId="38"/>
+    <cellStyle name="强调文字颜色 2" xfId="37" builtinId="33"/>
+    <cellStyle name="Currency [0]" xfId="38"/>
     <cellStyle name="链接单元格" xfId="39" builtinId="24"/>
-    <cellStyle name="Normal_laroux" xfId="40"/>
-    <cellStyle name="强调文字颜色 2" xfId="41" builtinId="33"/>
-    <cellStyle name="Currency [0]" xfId="42"/>
+    <cellStyle name="好_005-8月26日(佟亚丽+赵立卫) 3" xfId="40"/>
+    <cellStyle name="差_20101012(48-60) 3" xfId="41"/>
+    <cellStyle name="Normal_laroux" xfId="42"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="43" builtinId="50"/>
     <cellStyle name="汇总" xfId="44" builtinId="25"/>
     <cellStyle name="好" xfId="45" builtinId="26"/>
     <cellStyle name="适中" xfId="46" builtinId="28"/>
-    <cellStyle name="差_2010年社会保险统计报表表样" xfId="47"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="48" builtinId="46"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="47" builtinId="46"/>
+    <cellStyle name="差_2010年社会保险统计报表表样" xfId="48"/>
     <cellStyle name="强调文字颜色 1" xfId="49" builtinId="29"/>
-    <cellStyle name="Currency [0] 3" xfId="50"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="51" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="52" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="53" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="54" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="55" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="56" builtinId="41"/>
-    <cellStyle name="差_20101012(26-47)表" xfId="57"/>
-    <cellStyle name="标题 1 1" xfId="58"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="59" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="60" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="61" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="62" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="63" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="64" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="65" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="66" builtinId="52"/>
-    <cellStyle name="ColLevel_0" xfId="67"/>
-    <cellStyle name="Currency_Chart1" xfId="68"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="50" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="51" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="52" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="53" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="54" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="55" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="56" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="57" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="58" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="59" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="60" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="61" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="62" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="63" builtinId="52"/>
+    <cellStyle name="Currency [0] 3" xfId="64"/>
+    <cellStyle name="标题 1 1" xfId="65"/>
+    <cellStyle name="差_20101012(26-47)表" xfId="66"/>
+    <cellStyle name="Currency_Chart1" xfId="67"/>
+    <cellStyle name="ColLevel_0" xfId="68"/>
     <cellStyle name="Comma [0]" xfId="69"/>
     <cellStyle name="Currency [0] 2" xfId="70"/>
-    <cellStyle name="差_20101012(26-47)表 2" xfId="71"/>
-    <cellStyle name="标题 1 1 2" xfId="72"/>
-    <cellStyle name="差_20101012(26-47)表 3" xfId="73"/>
-    <cellStyle name="标题 1 1 3" xfId="74"/>
+    <cellStyle name="标题 1 1 2" xfId="71"/>
+    <cellStyle name="差_20101012(26-47)表 2" xfId="72"/>
+    <cellStyle name="标题 1 1 3" xfId="73"/>
+    <cellStyle name="差_20101012(26-47)表 3" xfId="74"/>
     <cellStyle name="标题 2 1" xfId="75"/>
     <cellStyle name="标题 2 1 2" xfId="76"/>
     <cellStyle name="标题 2 1 3" xfId="77"/>
@@ -3543,16 +3521,16 @@
     <cellStyle name="差_04A-表式之一(第9-60页) 2" xfId="82"/>
     <cellStyle name="差_04A-表式之一(第9-60页) 3" xfId="83"/>
     <cellStyle name="差_05表式10.5" xfId="84"/>
-    <cellStyle name="好_05表式10.5" xfId="85"/>
-    <cellStyle name="差_05表式10.5 3" xfId="86"/>
-    <cellStyle name="好_005-8月26日(佟亚丽+赵立卫)" xfId="87"/>
+    <cellStyle name="差_05表式10.5 3" xfId="85"/>
+    <cellStyle name="好_05表式10.5" xfId="86"/>
+    <cellStyle name="差_20101012(48-60)" xfId="87"/>
     <cellStyle name="常规 6 2" xfId="88"/>
-    <cellStyle name="差_20101012(48-60)" xfId="89"/>
-    <cellStyle name="好_005-8月26日(佟亚丽+赵立卫) 2" xfId="90"/>
-    <cellStyle name="差_20101012(48-60) 2" xfId="91"/>
+    <cellStyle name="好_005-8月26日(佟亚丽+赵立卫)" xfId="89"/>
+    <cellStyle name="差_20101012(48-60) 2" xfId="90"/>
+    <cellStyle name="好_005-8月26日(佟亚丽+赵立卫) 2" xfId="91"/>
     <cellStyle name="差_20101012(9-25)" xfId="92"/>
-    <cellStyle name="常规 2 5 2 3" xfId="93"/>
-    <cellStyle name="差_20101012(9-25) 2" xfId="94"/>
+    <cellStyle name="差_20101012(9-25) 2" xfId="93"/>
+    <cellStyle name="常规 2 5 2 3" xfId="94"/>
     <cellStyle name="差_20101012(9-25) 3" xfId="95"/>
     <cellStyle name="差_2010年社会保险统计报表表样 2" xfId="96"/>
     <cellStyle name="差_2010年社会保险统计报表表样 3" xfId="97"/>
@@ -3568,10 +3546,10 @@
     <cellStyle name="差_黑龙江省农村劳动力转移就业情况调查表" xfId="107"/>
     <cellStyle name="差_黑龙江省农村劳动力转移就业情况调查表 2" xfId="108"/>
     <cellStyle name="差_黑龙江省农村劳动力转移就业情况调查表 3" xfId="109"/>
-    <cellStyle name="常规_就业促进司报表式" xfId="110"/>
-    <cellStyle name="差_医疗保险已改" xfId="111"/>
-    <cellStyle name="好_48-60 3" xfId="112"/>
-    <cellStyle name="差_医疗保险已改 2" xfId="113"/>
+    <cellStyle name="差_医疗保险已改" xfId="110"/>
+    <cellStyle name="常规_就业促进司报表式" xfId="111"/>
+    <cellStyle name="差_医疗保险已改 2" xfId="112"/>
+    <cellStyle name="好_48-60 3" xfId="113"/>
     <cellStyle name="常规 10" xfId="114"/>
     <cellStyle name="常规 11" xfId="115"/>
     <cellStyle name="常规 12" xfId="116"/>
@@ -3581,8 +3559,8 @@
     <cellStyle name="常规 2 2 2 2" xfId="120"/>
     <cellStyle name="常规 2 2 2 3" xfId="121"/>
     <cellStyle name="常规 2 2 3" xfId="122"/>
-    <cellStyle name="好_20101012(9-25)" xfId="123"/>
-    <cellStyle name="常规 2 2_04A-表式之一(第9-60页)" xfId="124"/>
+    <cellStyle name="常规 2 2_04A-表式之一(第9-60页)" xfId="123"/>
+    <cellStyle name="好_20101012(9-25)" xfId="124"/>
     <cellStyle name="常规 2 3" xfId="125"/>
     <cellStyle name="常规 2 3 2" xfId="126"/>
     <cellStyle name="常规 2 3 2 2" xfId="127"/>
@@ -3590,8 +3568,8 @@
     <cellStyle name="常规 2 3 2 2 3" xfId="129"/>
     <cellStyle name="常规 2 3 2 3" xfId="130"/>
     <cellStyle name="常规 2 3 2 4" xfId="131"/>
-    <cellStyle name="常规 4" xfId="132"/>
-    <cellStyle name="常规 2 3 2_04A-表式之一(第9-60页)" xfId="133"/>
+    <cellStyle name="常规 2 3 2_04A-表式之一(第9-60页)" xfId="132"/>
+    <cellStyle name="常规 4" xfId="133"/>
     <cellStyle name="常规 2 3 3" xfId="134"/>
     <cellStyle name="常规 2 3 4" xfId="135"/>
     <cellStyle name="常规 2 3_04A-表式之一(第9-60页)" xfId="136"/>
@@ -3616,8 +3594,8 @@
     <cellStyle name="常规 3 3" xfId="155"/>
     <cellStyle name="常规 3 4" xfId="156"/>
     <cellStyle name="常规 4 2" xfId="157"/>
-    <cellStyle name="好_20101012(48-60)" xfId="158"/>
-    <cellStyle name="常规 4 3" xfId="159"/>
+    <cellStyle name="常规 4 3" xfId="158"/>
+    <cellStyle name="好_20101012(48-60)" xfId="159"/>
     <cellStyle name="常规 5" xfId="160"/>
     <cellStyle name="常规 5 3" xfId="161"/>
     <cellStyle name="常规 7" xfId="162"/>
@@ -3631,8 +3609,8 @@
     <cellStyle name="好_05表式10.5 3" xfId="170"/>
     <cellStyle name="好_20101012(26-47)表" xfId="171"/>
     <cellStyle name="好_20101012(26-47)表 2" xfId="172"/>
-    <cellStyle name="好_20101012(9-25) 2" xfId="173"/>
-    <cellStyle name="好_20101012(26-47)表 3" xfId="174"/>
+    <cellStyle name="好_20101012(26-47)表 3" xfId="173"/>
+    <cellStyle name="好_20101012(9-25) 2" xfId="174"/>
     <cellStyle name="好_20101012(48-60) 2" xfId="175"/>
     <cellStyle name="好_20101012(48-60) 3" xfId="176"/>
     <cellStyle name="好_20101012(9-25) 3" xfId="177"/>
@@ -4202,7 +4180,7 @@
       <c r="F17" s="49"/>
       <c r="G17" s="49"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" ht="14.25" spans="1:7">
       <c r="A18" s="89" t="s">
         <v>26</v>
       </c>
@@ -4307,7 +4285,7 @@
   <sheetPr/>
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
